--- a/Data_Sources/Wisc DHS - Opioid-Related Hospital Encounters/Opioid-Related Hospital Encounters (Dane County, 2005-2019).xlsx
+++ b/Data_Sources/Wisc DHS - Opioid-Related Hospital Encounters/Opioid-Related Hospital Encounters (Dane County, 2005-2019).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vronn\Documents\Opioid Policing Model\DaneCountyOpioidSimulation\DataSources\Wisc DHS - Opioid-Related Hospital Encounters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vronn\Documents\GitHub\DaneCountyOpioidSimulation\DataSources\Wisc DHS - Opioid-Related Hospital Encounters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6B31F6-DD7F-4000-A9E8-14EF7BA38718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A313456-2F02-4C68-ADAC-EABDA86D2409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19440" yWindow="6410" windowWidth="17690" windowHeight="13970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12255" windowHeight="11843" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ages14+" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>Rate of Opioid Related Discharges (per 100,000 population)</t>
   </si>
@@ -186,12 +186,36 @@
   <si>
     <t>days until nexy</t>
   </si>
+  <si>
+    <t>for Year of Opioid Hospitalization=2017</t>
+  </si>
+  <si>
+    <t>State of Residence</t>
+  </si>
+  <si>
+    <t>Detail Information</t>
+  </si>
+  <si>
+    <t>95% Confidence Interval</t>
+  </si>
+  <si>
+    <t>All Selected</t>
+  </si>
+  <si>
+    <t>551.5 - 564.9</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Return to previous drill-down level.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +292,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -289,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -321,12 +357,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -350,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -369,7 +442,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -400,6 +472,36 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -687,23 +789,23 @@
       <selection activeCell="F10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -712,7 +814,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -721,7 +823,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -730,7 +832,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
@@ -739,22 +841,22 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -774,7 +876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -794,7 +896,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>2005</v>
       </c>
@@ -814,7 +916,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>2006</v>
       </c>
@@ -834,7 +936,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>2007</v>
       </c>
@@ -854,7 +956,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>2008</v>
       </c>
@@ -874,7 +976,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>2009</v>
       </c>
@@ -894,7 +996,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>2010</v>
       </c>
@@ -914,7 +1016,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>2011</v>
       </c>
@@ -934,7 +1036,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>2012</v>
       </c>
@@ -954,7 +1056,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>2013</v>
       </c>
@@ -974,7 +1076,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>2014</v>
       </c>
@@ -994,7 +1096,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>2015</v>
       </c>
@@ -1014,7 +1116,7 @@
         <v>86.6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>2016</v>
       </c>
@@ -1034,7 +1136,7 @@
         <v>109.7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>2017</v>
       </c>
@@ -1054,7 +1156,7 @@
         <v>119.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>2018</v>
       </c>
@@ -1074,7 +1176,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>2019</v>
       </c>
@@ -1125,52 +1227,52 @@
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1226,7 +1328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1384,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>2019</v>
       </c>
@@ -1338,7 +1440,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>2018</v>
       </c>
@@ -1394,7 +1496,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>2017</v>
       </c>
@@ -1450,7 +1552,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>2016</v>
       </c>
@@ -1506,7 +1608,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>2015</v>
       </c>
@@ -1576,61 +1678,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C278254-26D5-435E-9AA8-B34617CB6C2D}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" customWidth="1"/>
+    <col min="2" max="3" width="12.9296875" customWidth="1"/>
+    <col min="4" max="4" width="14.53125" customWidth="1"/>
+    <col min="5" max="5" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1649,9 +1748,9 @@
       <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1770,7 @@
         <v>362.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>2005</v>
       </c>
@@ -1691,7 +1790,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>2006</v>
       </c>
@@ -1711,7 +1810,7 @@
         <v>240.9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>2007</v>
       </c>
@@ -1731,7 +1830,7 @@
         <v>280.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>2008</v>
       </c>
@@ -1751,7 +1850,7 @@
         <v>334.3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>2009</v>
       </c>
@@ -1771,7 +1870,7 @@
         <v>375.2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>2010</v>
       </c>
@@ -1791,7 +1890,7 @@
         <v>425.7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>2011</v>
       </c>
@@ -1811,7 +1910,7 @@
         <v>461.3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>2012</v>
       </c>
@@ -1831,7 +1930,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>2013</v>
       </c>
@@ -1851,7 +1950,7 @@
         <v>409.1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>2014</v>
       </c>
@@ -1871,7 +1970,7 @@
         <v>383.3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>2015</v>
       </c>
@@ -1891,7 +1990,7 @@
         <v>433.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>2016</v>
       </c>
@@ -1911,7 +2010,7 @@
         <v>445.7</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>2017</v>
       </c>
@@ -1931,7 +2030,7 @@
         <v>418.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>2018</v>
       </c>
@@ -1951,7 +2050,7 @@
         <v>350.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>2019</v>
       </c>
@@ -1971,14 +2070,95 @@
         <v>360.6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="27"/>
+    <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A30" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A31" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="36"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="32">
+        <v>26369</v>
+      </c>
+      <c r="C35" s="32">
+        <v>4724027</v>
+      </c>
+      <c r="D35" s="33">
+        <v>558.20000000000005</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="32">
+        <v>26369</v>
+      </c>
+      <c r="C36" s="32">
+        <v>4724027</v>
+      </c>
+      <c r="D36" s="33">
+        <v>558.20000000000005</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="37" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B33:E33"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="javascript:drill_down('year1', '2005');" xr:uid="{0FBCD513-A012-4238-8AB6-820746A3B576}"/>
     <hyperlink ref="A13" r:id="rId2" display="javascript:drill_down('year1', '2006');" xr:uid="{7E5F7752-1F1D-4A7D-96C6-0CDAB9080225}"/>
@@ -1995,8 +2175,12 @@
     <hyperlink ref="A24" r:id="rId13" display="javascript:drill_down('year1', '2017');" xr:uid="{110383A9-481C-4F22-BFDF-4D103AF59A40}"/>
     <hyperlink ref="A25" r:id="rId14" display="javascript:drill_down('year1', '2018');" xr:uid="{DC07DA63-D901-4D82-8EA7-449B1984E767}"/>
     <hyperlink ref="A26" r:id="rId15" display="javascript:drill_down('year1', '2019');" xr:uid="{93EB3EE8-9315-49A2-961F-8AA484E34308}"/>
+    <hyperlink ref="E34" r:id="rId16" display="https://www.dhs.wisconsin.gov/wish/interpretation.htm" xr:uid="{6B0D96D5-863A-48F0-98F2-E0123CD1C255}"/>
+    <hyperlink ref="A36" r:id="rId17" display="javascript:drill_down('wisconsin', '1');" xr:uid="{CE9F8DE4-EC13-4346-9CDA-02A8EDCC90B1}"/>
+    <hyperlink ref="A38" r:id="rId18" display="javascript:history.back();" xr:uid="{9F96114A-D328-4463-B2AF-B8E087C73807}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -2008,70 +2192,58 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:18" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:18" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:18" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2127,348 +2299,344 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>1957</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>2155790</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>90.8</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>86.8</v>
       </c>
       <c r="F12">
         <v>94.8</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>2104</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <v>97.6</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <v>93.4</v>
       </c>
       <c r="J12">
         <v>101.8</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <v>2221</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="23">
         <v>103</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="23">
         <v>98.7</v>
       </c>
       <c r="N12">
         <v>107.3</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="22">
         <v>1974</v>
       </c>
-      <c r="P12" s="24">
+      <c r="P12" s="23">
         <v>91.6</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12" s="23">
         <v>87.5</v>
       </c>
       <c r="R12">
         <v>95.6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="22">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" s="21">
         <v>2019</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>325</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>436754</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>74.400000000000006</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>66.3</v>
       </c>
       <c r="F13">
         <v>82.5</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>359</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>82.2</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <v>73.7</v>
       </c>
       <c r="J13">
         <v>90.7</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="23">
         <v>464</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="23">
         <v>106.2</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="23">
         <v>96.6</v>
       </c>
       <c r="N13">
         <v>115.9</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="23">
         <v>351</v>
       </c>
-      <c r="P13" s="24">
+      <c r="P13" s="23">
         <v>80.400000000000006</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="23">
         <v>72</v>
       </c>
       <c r="R13">
         <v>88.8</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="22">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14" s="21">
         <v>2018</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>331</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>435583</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>76</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>67.8</v>
       </c>
       <c r="F14">
         <v>84.2</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>374</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <v>85.9</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="23">
         <v>77.2</v>
       </c>
       <c r="J14">
         <v>94.6</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="23">
         <v>366</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="23">
         <v>84</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="23">
         <v>75.400000000000006</v>
       </c>
       <c r="N14">
         <v>92.6</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="23">
         <v>381</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="23">
         <v>87.5</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="23">
         <v>78.7</v>
       </c>
       <c r="R14">
         <v>96.2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="22">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" s="21">
         <v>2017</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>451</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>429894</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>104.9</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>95.2</v>
       </c>
       <c r="F15">
         <v>114.6</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <v>442</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <v>102.8</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="23">
         <v>93.2</v>
       </c>
       <c r="J15">
         <v>112.4</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="23">
         <v>464</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="23">
         <v>107.9</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="23">
         <v>98.1</v>
       </c>
       <c r="N15">
         <v>117.7</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O15" s="23">
         <v>361</v>
       </c>
-      <c r="P15" s="24">
+      <c r="P15" s="23">
         <v>84</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="23">
         <v>75.3</v>
       </c>
       <c r="R15">
         <v>92.6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="22">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" s="21">
         <v>2016</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>461</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>429094</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>107.4</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>97.6</v>
       </c>
       <c r="F16">
         <v>117.2</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <v>478</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <v>111.4</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <v>101.4</v>
       </c>
       <c r="J16">
         <v>121.4</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="23">
         <v>461</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="23">
         <v>107.4</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="23">
         <v>97.6</v>
       </c>
       <c r="N16">
         <v>117.2</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="23">
         <v>429</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="23">
         <v>100</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="23">
         <v>90.5</v>
       </c>
       <c r="R16">
         <v>109.4</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="22">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17" s="21">
         <v>2015</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>389</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>424465</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>91.6</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>82.5</v>
       </c>
       <c r="F17">
         <v>100.7</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <v>451</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>106.3</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <v>96.5</v>
       </c>
       <c r="J17">
         <v>116.1</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="23">
         <v>466</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="23">
         <v>109.8</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="23">
         <v>99.8</v>
       </c>
       <c r="N17">
         <v>119.7</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="23">
         <v>452</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="23">
         <v>106.5</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="23">
         <v>96.7</v>
       </c>
       <c r="R17">
         <v>116.3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2486,23 +2654,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210FAC8B-CBFF-4B94-B955-F38862F86E4D}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="4" width="11.6328125" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" customWidth="1"/>
+    <col min="3" max="4" width="11.59765625" customWidth="1"/>
+    <col min="15" max="15" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="K2" t="s">
         <v>34</v>
       </c>
@@ -2514,7 +2682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" t="str">
         <f>'Ages 14+ All HE'!D10</f>
         <v>Rate of Discharges</v>
@@ -2533,7 +2701,7 @@
         <v>5.755313453824501E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4">
         <f>'Ages 14+ All HE'!A12</f>
         <v>2005</v>
@@ -2551,7 +2719,7 @@
         <v>1.5814558058925476</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5">
         <f>'Ages 14+ All HE'!A13</f>
         <v>2006</v>
@@ -2561,15 +2729,15 @@
         <v>225.9</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C4:C18" si="0">B5/365</f>
+        <f t="shared" ref="C5:C18" si="0">B5/365</f>
         <v>0.61890410958904107</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D4:D18" si="1">1/C5</f>
+        <f t="shared" ref="D5:D18" si="1">1/C5</f>
         <v>1.6157591854803011</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6">
         <f>'Ages 14+ All HE'!A14</f>
         <v>2007</v>
@@ -2593,7 +2761,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7">
         <f>'Ages 14+ All HE'!A15</f>
         <v>2008</v>
@@ -2610,10 +2778,10 @@
         <f t="shared" si="1"/>
         <v>1.1525102620776759</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="27">
         <f>AVERAGE(D12:D16)</f>
         <v>0.91733863681112826</v>
       </c>
@@ -2626,7 +2794,7 @@
         <v>2.5056765800295748</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>'Ages 14+ All HE'!A16</f>
         <v>2009</v>
@@ -2643,10 +2811,10 @@
         <f t="shared" si="1"/>
         <v>1.0235558048233313</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="27">
         <f>_xlfn.STDEV.P(D12:D16)</f>
         <v>4.939945517193426E-2</v>
       </c>
@@ -2655,7 +2823,7 @@
         <v>1.5216251525197682</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>'Ages 14+ All HE'!A17</f>
         <v>2010</v>
@@ -2680,7 +2848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10">
         <f>'Ages 14+ All HE'!A18</f>
         <v>2011</v>
@@ -2698,7 +2866,7 @@
         <v>0.82803992740471877</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11">
         <f>'Ages 14+ All HE'!A19</f>
         <v>2012</v>
@@ -2716,7 +2884,7 @@
         <v>0.8647239990523572</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>'Ages 14+ All HE'!A20</f>
         <v>2013</v>
@@ -2734,7 +2902,7 @@
         <v>0.93565752371186872</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13">
         <f>'Ages 14+ All HE'!A21</f>
         <v>2014</v>
@@ -2752,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14">
         <f>'Ages 14+ All HE'!A22</f>
         <v>2015</v>
@@ -2770,7 +2938,7 @@
         <v>0.88121680347658127</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>'Ages 14+ All HE'!A23</f>
         <v>2016</v>
@@ -2788,7 +2956,7 @@
         <v>0.85640544345377767</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>'Ages 14+ All HE'!A24</f>
         <v>2017</v>
@@ -2806,7 +2974,7 @@
         <v>0.91341341341341342</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17">
         <f>'Ages 14+ All HE'!A25</f>
         <v>2018</v>
@@ -2824,7 +2992,7 @@
         <v>1.0951095109510951</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18">
         <f>'Ages 14+ All HE'!A26</f>
         <v>2019</v>
@@ -2842,12 +3010,12 @@
         <v>1.0635198135198136</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="str">
         <f>'Ages14+'!A10</f>
         <v>Year of Opioid Hospitalization</v>
@@ -2863,7 +3031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22">
         <f>'Ages14+'!A12</f>
         <v>2005</v>
@@ -2881,7 +3049,7 @@
         <v>9.630606860158311</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23">
         <f>'Ages14+'!A13</f>
         <v>2006</v>
@@ -2899,7 +3067,7 @@
         <v>11.370716510903426</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24">
         <f>'Ages14+'!A14</f>
         <v>2007</v>
@@ -2917,7 +3085,7 @@
         <v>9.3830334190231355</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25">
         <f>'Ages14+'!A15</f>
         <v>2008</v>
@@ -2941,7 +3109,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>'Ages14+'!A16</f>
         <v>2009</v>
@@ -2958,10 +3126,10 @@
         <f t="shared" si="3"/>
         <v>6.8867924528301891</v>
       </c>
-      <c r="K26" s="28" t="s">
+      <c r="K26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="27">
         <f>AVERAGE(D22:D34)</f>
         <v>6.4082958003949857</v>
       </c>
@@ -2974,7 +3142,7 @@
         <v>10219.412779311135</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27">
         <f>'Ages14+'!A17</f>
         <v>2010</v>
@@ -2991,10 +3159,10 @@
         <f t="shared" si="3"/>
         <v>6.7095588235294121</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="K27" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="27">
         <f>_xlfn.STDEV.P(D22:D34)</f>
         <v>2.376446340113278</v>
       </c>
@@ -3003,7 +3171,7 @@
         <v>104379.96269828707</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28">
         <f>'Ages14+'!A18</f>
         <v>2011</v>
@@ -3028,7 +3196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29">
         <f>'Ages14+'!A19</f>
         <v>2012</v>
@@ -3046,7 +3214,7 @@
         <v>4.6319796954314727</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30">
         <f>'Ages14+'!A20</f>
         <v>2013</v>
@@ -3064,7 +3232,7 @@
         <v>5.3755522827687772</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31">
         <f>'Ages14+'!A21</f>
         <v>2014</v>
@@ -3082,7 +3250,7 @@
         <v>5.1994301994301999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32">
         <f>'Ages14+'!A22</f>
         <v>2015</v>
@@ -3100,7 +3268,7 @@
         <v>4.6675191815856776</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <f>'Ages14+'!A23</f>
         <v>2016</v>
@@ -3118,7 +3286,7 @@
         <v>3.6427145708582835</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <f>'Ages14+'!A24</f>
         <v>2017</v>
@@ -3136,7 +3304,7 @@
         <v>3.3181818181818183</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <f>'Ages14+'!A25</f>
         <v>2018</v>
@@ -3154,7 +3322,7 @@
         <v>4.1103603603603602</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <f>'Ages14+'!A26</f>
         <v>2019</v>
